--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8640_StringRanges_Numeric_Order.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8640_StringRanges_Numeric_Order.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>SmartRules String stringRangesTest(String value)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5"/>
     </row>
